--- a/groupUpdateTemplate.xlsx
+++ b/groupUpdateTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Uni\Year 2\APT\assign2\apt-Group-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6174B8B-8FC6-4F73-942D-C9ED8B686392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D55393-AC2A-49F9-B062-B26CCFD73883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>

--- a/groupUpdateTemplate.xlsx
+++ b/groupUpdateTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Uni\Year 2\APT\assign2\apt-Group-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D55393-AC2A-49F9-B062-B26CCFD73883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B804D79-B5B0-4BB5-98BF-35951BCC5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Assignment 2 | Weekly Update Tracking Sheet</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Game class, player class (place and replace outline), moved print board to game class, added player hands and added player scores to board layout, began working on tracking turn order.</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1852,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2563,7 +2566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
@@ -2574,7 +2577,9 @@
       <c r="F45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="H45" s="17"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>

--- a/groupUpdateTemplate.xlsx
+++ b/groupUpdateTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Uni\Year 2\APT\assign2\apt-Group-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1BA2A-2251-437D-8DB2-120BF3D40BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE81118-BB75-47B2-87E6-3DFADC458F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>Week 11</t>
   </si>
   <si>
-    <t>Place, replace, pass and save all work now. Validation for functions mentioned above. Players may now only enter a name with uppercase characters</t>
+    <t>Place, replace, pass and save all work now. Validation for functions mentioned above. Players may now only enter a name with uppercase characters (I've lost track but essentially everything except for the print board function and the linked list class, although i had to modify the linked list class a little)</t>
   </si>
 </sst>
 </file>
@@ -579,40 +579,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1884,7 +1860,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2188,10 +2164,10 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26"/>
@@ -2374,10 +2350,10 @@
       <c r="C31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
       <c r="H31" s="26"/>
@@ -2447,7 +2423,7 @@
       <c r="F35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="38" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="17"/>
@@ -2530,10 +2506,10 @@
       <c r="C41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
       <c r="H41" s="26"/>
@@ -2686,10 +2662,10 @@
       <c r="C51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="39"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="28"/>
       <c r="G51" s="29"/>
       <c r="H51" s="26"/>
@@ -2826,10 +2802,10 @@
       <c r="C61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="39"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
       <c r="H61" s="26"/>
@@ -2845,64 +2821,55 @@
     <mergeCell ref="D61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="F19:I19 A24:C26 A1:I16 A18:I18 A17:C17 E17:I17 A19:D23 E20:I22 E23:E26 G23:I26 F23:F25">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26 A27:I28 A29:C31 E29:I29 D30:I30 D31 F31:I31 A32:I33 A34:E40 A41:D52 E42:I43 E44:E50 E52:I52 A53:I53">
-    <cfRule type="cellIs" dxfId="12" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J26">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J33 J42:J43 J52:J53">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:D61 E54:E60">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="-1" stopIfTrue="1" operator="equal">
-      <formula>$E$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="-1" stopIfTrue="1" operator="equal">
-      <formula>$E$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="-1" stopIfTrue="1" operator="equal">
-      <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
